--- a/data/trans_dic/P3A_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,77</t>
+          <t>9,01; 15,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,85</t>
+          <t>6,25; 12,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,18</t>
+          <t>3,45; 8,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,65</t>
+          <t>5,31; 9,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 14,43</t>
+          <t>7,22; 14,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,87</t>
+          <t>4,84; 11,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,47</t>
+          <t>3,69; 9,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,66</t>
+          <t>5,35; 9,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,33</t>
+          <t>9,06; 13,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,54</t>
+          <t>6,23; 10,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,55</t>
+          <t>4,09; 7,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,77</t>
+          <t>5,81; 8,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,5</t>
+          <t>3,16; 8,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,01</t>
+          <t>2,78; 7,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,65</t>
+          <t>1,25; 4,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,94</t>
+          <t>2,55; 5,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,18</t>
+          <t>2,36; 6,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,95</t>
+          <t>2,96; 8,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,76</t>
+          <t>0,93; 5,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,23</t>
+          <t>3,09; 6,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,44</t>
+          <t>3,1; 6,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,94</t>
+          <t>3,24; 6,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,86</t>
+          <t>1,41; 3,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,38</t>
+          <t>3,12; 5,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,24</t>
+          <t>1,39; 4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,93</t>
+          <t>1,43; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,05</t>
+          <t>0,84; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,08</t>
+          <t>0,64; 4,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,8</t>
+          <t>0,63; 6,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,2</t>
+          <t>2,06; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,63</t>
+          <t>0,59; 5,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,57</t>
+          <t>4,58; 10,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,91</t>
+          <t>1,55; 3,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,3</t>
+          <t>1,92; 4,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,07</t>
+          <t>0,92; 3,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,17</t>
+          <t>1,23; 4,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,88</t>
+          <t>1,33; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,46</t>
+          <t>1,63; 3,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,81</t>
+          <t>1,17; 2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,31</t>
+          <t>3,54; 6,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,15</t>
+          <t>0,63; 2,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,92</t>
+          <t>0,73; 2,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,18</t>
+          <t>0,88; 3,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,74</t>
+          <t>1,4; 3,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,28</t>
+          <t>1,24; 2,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,95</t>
+          <t>1,48; 2,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,51</t>
+          <t>1,23; 2,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,69</t>
+          <t>2,62; 4,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,85</t>
+          <t>0,49; 3,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,79</t>
+          <t>3,0; 6,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,65</t>
+          <t>1,33; 3,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,49</t>
+          <t>2,57; 5,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,13</t>
+          <t>0,89; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,4</t>
+          <t>1,92; 4,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,39</t>
+          <t>0,55; 2,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,54</t>
+          <t>3,75; 6,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,65</t>
+          <t>0,86; 2,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,75</t>
+          <t>2,69; 4,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,63</t>
+          <t>1,09; 2,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,71</t>
+          <t>3,71; 5,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,87</t>
+          <t>3,03; 8,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,18</t>
+          <t>1,13; 5,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,27</t>
+          <t>0,64; 4,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 9,59</t>
+          <t>0,86; 11,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,25</t>
+          <t>2,12; 4,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,43</t>
+          <t>5,36; 8,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,24</t>
+          <t>3,37; 6,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,57</t>
+          <t>6,43; 9,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,51</t>
+          <t>2,6; 4,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,33</t>
+          <t>4,78; 7,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,41</t>
+          <t>3,06; 5,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,49</t>
+          <t>5,37; 8,6</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,81</t>
+          <t>3,4; 4,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,51</t>
+          <t>3,28; 4,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,09</t>
+          <t>1,93; 2,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,04</t>
+          <t>3,39; 5,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,86</t>
+          <t>2,58; 3,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,36</t>
+          <t>3,84; 5,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,79</t>
+          <t>2,48; 3,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,1</t>
+          <t>4,34; 6,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,11</t>
+          <t>3,14; 4,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 4,75</t>
+          <t>3,72; 4,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,21</t>
+          <t>2,32; 3,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 5,36</t>
+          <t>4,08; 5,39</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente una persona con remuneración</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55522</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38052</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23140</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36450</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31407</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23569</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20828</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32251</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>86930</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61621</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43968</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68701</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42620; 71575</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27343; 52713</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14766; 36281</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26849; 47828</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22138; 43620</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15226; 34695</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12791; 32516</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23914; 42691</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>70625; 105004</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46802; 79306</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31720; 59279</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55308; 82842</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19325</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19310</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9541</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18050</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14219</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17623</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8359</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16931</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33544</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36933</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17900</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>34981</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11600; 30651</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11648; 31338</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4723; 18077</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11535; 26170</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8762; 22941</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10011; 29936</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3447; 18672</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11829; 23962</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22922; 46335</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24488; 52796</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10561; 29636</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26019; 45738</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13701</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8752</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15509</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10944</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11892</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17954</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26134</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12340</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7536; 23220</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8990; 24167</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4361; 17004</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4297; 28057</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1064; 10566</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5370; 19473</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>976; 9777</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7616; 17299</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11038; 27922</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17110; 37917</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6324; 20708</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10251; 41289</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24457</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28670</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21130</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>48858</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8584</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11922</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14263</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25904</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33041</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40592</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35393</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74762</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16409; 34633</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18906; 41799</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13408; 30795</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36592; 64721</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4471; 16777</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5599; 22468</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7198; 25301</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13652; 36824</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24266; 46189</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28401; 56180</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24283; 49782</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52650; 95024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22714</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14162</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17958</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10032</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23012</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9467</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43953</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14606</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45726</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>23630</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61911</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1714; 10766</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15273; 34091</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8284; 22329</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12195; 27021</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5074; 18064</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14599; 34063</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4050; 17667</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31538; 53891</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7869; 23590</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>34187; 62321</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14829; 34897</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>48853; 74451</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14859</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7973</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37788</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>74796</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50411</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>59990</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>52646</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>81865</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>55843</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67963</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9034; 24863</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3027; 14190</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1831; 11873</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2076; 28092</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>26462; 50156</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>59490; 94216</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36465; 67736</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>48948; 73393</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>40162; 68178</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>65848; 101470</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>41862; 74560</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>53793; 86159</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>132436</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>131005</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>82158</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>144798</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>106285</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>161866</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>106916</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>190921</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>238721</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>292870</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>189073</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>335720</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>111156; 156837</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>112072; 159009</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>65147; 100065</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>114554; 175210</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>86911; 129269</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>136257; 190935</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>87320; 133451</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>155154; 216803</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>208505; 271183</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>258950; 327718</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>160304; 219518</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>283406; 374454</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P3A_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
